--- a/nlp/datasets/คอมมูเกม.xlsx
+++ b/nlp/datasets/คอมมูเกม.xlsx
@@ -1,26 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d695ccdc58059bb2/Documents/Programming/nlp/datasets/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_F25DC773A252ABDACC1048B8495B45945ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B3FA945-0CD1-4B0C-8F15-A52004EBCD6F}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="2460" windowWidth="21195" windowHeight="11955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -113,7 +102,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,13 +114,13 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -159,10 +149,10 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </bottom>
       <diagonal/>
     </border>
@@ -174,7 +164,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -183,16 +173,16 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </left>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </bottom>
       <diagonal/>
     </border>
@@ -200,30 +190,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+  <cellXfs count="6">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -234,10 +226,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -264,82 +256,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -351,3204 +343,3226 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:A999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.5703125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" style="5" width="73.57642857142856" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5" customFormat="1" s="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75" customFormat="1" s="1">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="36.75" customFormat="1" s="1">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="35.25" customFormat="1" s="1">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="22.5" customFormat="1" s="1">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="36.75" customFormat="1" s="1">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="66.75" customFormat="1" s="1">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="36.75" customFormat="1" s="1">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75" customFormat="1" s="1">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75" customFormat="1" s="1">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="36.75" customFormat="1" s="1">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="37.5" customFormat="1" s="1">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="36.75" customFormat="1" s="1">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="96.75" customFormat="1" s="1">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="345.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A26" s="4"/>
     </row>
-    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A28" s="4"/>
     </row>
-    <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A30" s="4"/>
     </row>
-    <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A31" s="4"/>
     </row>
-    <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A32" s="4"/>
     </row>
-    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A33" s="4"/>
     </row>
-    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A38" s="4"/>
     </row>
-    <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A39" s="4"/>
     </row>
-    <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A41" s="4"/>
     </row>
-    <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A42" s="4"/>
     </row>
-    <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A43" s="4"/>
     </row>
-    <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A44" s="4"/>
     </row>
-    <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A46" s="4"/>
     </row>
-    <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A48" s="4"/>
     </row>
-    <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A49" s="4"/>
     </row>
-    <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A50" s="4"/>
     </row>
-    <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A51" s="4"/>
     </row>
-    <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A52" s="4"/>
     </row>
-    <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A53" s="4"/>
     </row>
-    <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A54" s="4"/>
     </row>
-    <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A55" s="4"/>
     </row>
-    <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A249" s="4"/>
     </row>
-    <row r="250" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A250" s="4"/>
     </row>
-    <row r="251" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A251" s="4"/>
     </row>
-    <row r="252" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A252" s="4"/>
     </row>
-    <row r="253" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A253" s="4"/>
     </row>
-    <row r="254" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A254" s="4"/>
     </row>
-    <row r="255" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A255" s="4"/>
     </row>
-    <row r="256" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A256" s="4"/>
     </row>
-    <row r="257" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A257" s="4"/>
     </row>
-    <row r="258" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A258" s="4"/>
     </row>
-    <row r="259" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A259" s="4"/>
     </row>
-    <row r="260" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A260" s="4"/>
     </row>
-    <row r="261" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A261" s="4"/>
     </row>
-    <row r="262" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A262" s="4"/>
     </row>
-    <row r="263" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A263" s="4"/>
     </row>
-    <row r="264" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A264" s="4"/>
     </row>
-    <row r="265" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A265" s="4"/>
     </row>
-    <row r="266" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A266" s="4"/>
     </row>
-    <row r="267" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A267" s="4"/>
     </row>
-    <row r="268" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A268" s="4"/>
     </row>
-    <row r="269" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A269" s="4"/>
     </row>
-    <row r="270" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A270" s="4"/>
     </row>
-    <row r="271" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A271" s="4"/>
     </row>
-    <row r="272" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A272" s="4"/>
     </row>
-    <row r="273" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A273" s="4"/>
     </row>
-    <row r="274" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A274" s="4"/>
     </row>
-    <row r="275" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A275" s="4"/>
     </row>
-    <row r="276" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A276" s="4"/>
     </row>
-    <row r="277" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A277" s="4"/>
     </row>
-    <row r="278" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A278" s="4"/>
     </row>
-    <row r="279" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A279" s="4"/>
     </row>
-    <row r="280" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A280" s="4"/>
     </row>
-    <row r="281" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A281" s="4"/>
     </row>
-    <row r="282" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A282" s="4"/>
     </row>
-    <row r="283" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A283" s="4"/>
     </row>
-    <row r="284" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A284" s="4"/>
     </row>
-    <row r="285" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A285" s="4"/>
     </row>
-    <row r="286" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A286" s="4"/>
     </row>
-    <row r="287" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A287" s="4"/>
     </row>
-    <row r="288" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A288" s="4"/>
     </row>
-    <row r="289" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A289" s="4"/>
     </row>
-    <row r="290" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A290" s="4"/>
     </row>
-    <row r="291" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A291" s="4"/>
     </row>
-    <row r="292" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A292" s="4"/>
     </row>
-    <row r="293" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A293" s="4"/>
     </row>
-    <row r="294" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A294" s="4"/>
     </row>
-    <row r="295" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A295" s="4"/>
     </row>
-    <row r="296" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A296" s="4"/>
     </row>
-    <row r="297" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A297" s="4"/>
     </row>
-    <row r="298" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A298" s="4"/>
     </row>
-    <row r="299" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A299" s="4"/>
     </row>
-    <row r="300" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A300" s="4"/>
     </row>
-    <row r="301" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A301" s="4"/>
     </row>
-    <row r="302" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A302" s="4"/>
     </row>
-    <row r="303" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A303" s="4"/>
     </row>
-    <row r="304" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A304" s="4"/>
     </row>
-    <row r="305" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A305" s="4"/>
     </row>
-    <row r="306" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A306" s="4"/>
     </row>
-    <row r="307" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A307" s="4"/>
     </row>
-    <row r="308" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A308" s="4"/>
     </row>
-    <row r="309" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A309" s="4"/>
     </row>
-    <row r="310" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A310" s="4"/>
     </row>
-    <row r="311" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A311" s="4"/>
     </row>
-    <row r="312" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A312" s="4"/>
     </row>
-    <row r="313" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A313" s="4"/>
     </row>
-    <row r="314" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A314" s="4"/>
     </row>
-    <row r="315" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A315" s="4"/>
     </row>
-    <row r="316" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A316" s="4"/>
     </row>
-    <row r="317" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A317" s="4"/>
     </row>
-    <row r="318" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A318" s="4"/>
     </row>
-    <row r="319" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A319" s="4"/>
     </row>
-    <row r="320" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A320" s="4"/>
     </row>
-    <row r="321" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A321" s="4"/>
     </row>
-    <row r="322" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A322" s="4"/>
     </row>
-    <row r="323" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A323" s="4"/>
     </row>
-    <row r="324" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A324" s="4"/>
     </row>
-    <row r="325" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A325" s="4"/>
     </row>
-    <row r="326" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A326" s="4"/>
     </row>
-    <row r="327" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A327" s="4"/>
     </row>
-    <row r="328" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A328" s="4"/>
     </row>
-    <row r="329" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A329" s="4"/>
     </row>
-    <row r="330" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A330" s="4"/>
     </row>
-    <row r="331" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A331" s="4"/>
     </row>
-    <row r="332" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A332" s="4"/>
     </row>
-    <row r="333" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A333" s="4"/>
     </row>
-    <row r="334" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A334" s="4"/>
     </row>
-    <row r="335" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A335" s="4"/>
     </row>
-    <row r="336" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A336" s="4"/>
     </row>
-    <row r="337" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A337" s="4"/>
     </row>
-    <row r="338" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A338" s="4"/>
     </row>
-    <row r="339" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A339" s="4"/>
     </row>
-    <row r="340" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A340" s="4"/>
     </row>
-    <row r="341" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A341" s="4"/>
     </row>
-    <row r="342" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A342" s="4"/>
     </row>
-    <row r="343" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A343" s="4"/>
     </row>
-    <row r="344" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A344" s="4"/>
     </row>
-    <row r="345" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A345" s="4"/>
     </row>
-    <row r="346" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A346" s="4"/>
     </row>
-    <row r="347" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A347" s="4"/>
     </row>
-    <row r="348" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A348" s="4"/>
     </row>
-    <row r="349" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A349" s="4"/>
     </row>
-    <row r="350" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A350" s="4"/>
     </row>
-    <row r="351" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A351" s="4"/>
     </row>
-    <row r="352" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A352" s="4"/>
     </row>
-    <row r="353" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A353" s="4"/>
     </row>
-    <row r="354" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A354" s="4"/>
     </row>
-    <row r="355" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A355" s="4"/>
     </row>
-    <row r="356" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A356" s="4"/>
     </row>
-    <row r="357" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A357" s="4"/>
     </row>
-    <row r="358" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A358" s="4"/>
     </row>
-    <row r="359" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A359" s="4"/>
     </row>
-    <row r="360" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A360" s="4"/>
     </row>
-    <row r="361" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A361" s="4"/>
     </row>
-    <row r="362" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A362" s="4"/>
     </row>
-    <row r="363" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A363" s="4"/>
     </row>
-    <row r="364" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A364" s="4"/>
     </row>
-    <row r="365" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A365" s="4"/>
     </row>
-    <row r="366" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A366" s="4"/>
     </row>
-    <row r="367" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A367" s="4"/>
     </row>
-    <row r="368" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A368" s="4"/>
     </row>
-    <row r="369" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A369" s="4"/>
     </row>
-    <row r="370" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A370" s="4"/>
     </row>
-    <row r="371" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A371" s="4"/>
     </row>
-    <row r="372" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A372" s="4"/>
     </row>
-    <row r="373" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A373" s="4"/>
     </row>
-    <row r="374" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A374" s="4"/>
     </row>
-    <row r="375" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A375" s="4"/>
     </row>
-    <row r="376" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A376" s="4"/>
     </row>
-    <row r="377" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A377" s="4"/>
     </row>
-    <row r="378" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A378" s="4"/>
     </row>
-    <row r="379" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A379" s="4"/>
     </row>
-    <row r="380" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A380" s="4"/>
     </row>
-    <row r="381" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A381" s="4"/>
     </row>
-    <row r="382" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A382" s="4"/>
     </row>
-    <row r="383" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A383" s="4"/>
     </row>
-    <row r="384" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A384" s="4"/>
     </row>
-    <row r="385" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A385" s="4"/>
     </row>
-    <row r="386" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A386" s="4"/>
     </row>
-    <row r="387" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A387" s="4"/>
     </row>
-    <row r="388" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A388" s="4"/>
     </row>
-    <row r="389" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A389" s="4"/>
     </row>
-    <row r="390" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A390" s="4"/>
     </row>
-    <row r="391" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A391" s="4"/>
     </row>
-    <row r="392" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A392" s="4"/>
     </row>
-    <row r="393" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A393" s="4"/>
     </row>
-    <row r="394" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A394" s="4"/>
     </row>
-    <row r="395" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A395" s="4"/>
     </row>
-    <row r="396" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A396" s="4"/>
     </row>
-    <row r="397" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A397" s="4"/>
     </row>
-    <row r="398" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A398" s="4"/>
     </row>
-    <row r="399" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A399" s="4"/>
     </row>
-    <row r="400" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A400" s="4"/>
     </row>
-    <row r="401" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A401" s="4"/>
     </row>
-    <row r="402" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A402" s="4"/>
     </row>
-    <row r="403" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A403" s="4"/>
     </row>
-    <row r="404" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A404" s="4"/>
     </row>
-    <row r="405" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A405" s="4"/>
     </row>
-    <row r="406" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A406" s="4"/>
     </row>
-    <row r="407" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A407" s="4"/>
     </row>
-    <row r="408" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A408" s="4"/>
     </row>
-    <row r="409" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A409" s="4"/>
     </row>
-    <row r="410" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A410" s="4"/>
     </row>
-    <row r="411" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A411" s="4"/>
     </row>
-    <row r="412" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A412" s="4"/>
     </row>
-    <row r="413" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A413" s="4"/>
     </row>
-    <row r="414" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A414" s="4"/>
     </row>
-    <row r="415" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A415" s="4"/>
     </row>
-    <row r="416" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A416" s="4"/>
     </row>
-    <row r="417" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A417" s="4"/>
     </row>
-    <row r="418" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A418" s="4"/>
     </row>
-    <row r="419" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A419" s="4"/>
     </row>
-    <row r="420" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A420" s="4"/>
     </row>
-    <row r="421" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A421" s="4"/>
     </row>
-    <row r="422" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A422" s="4"/>
     </row>
-    <row r="423" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A423" s="4"/>
     </row>
-    <row r="424" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A424" s="4"/>
     </row>
-    <row r="425" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A425" s="4"/>
     </row>
-    <row r="426" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A426" s="4"/>
     </row>
-    <row r="427" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A427" s="4"/>
     </row>
-    <row r="428" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A428" s="4"/>
     </row>
-    <row r="429" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A429" s="4"/>
     </row>
-    <row r="430" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A430" s="4"/>
     </row>
-    <row r="431" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A431" s="4"/>
     </row>
-    <row r="432" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A432" s="4"/>
     </row>
-    <row r="433" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A433" s="4"/>
     </row>
-    <row r="434" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A434" s="4"/>
     </row>
-    <row r="435" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A435" s="4"/>
     </row>
-    <row r="436" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A436" s="4"/>
     </row>
-    <row r="437" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A437" s="4"/>
     </row>
-    <row r="438" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A438" s="4"/>
     </row>
-    <row r="439" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A439" s="4"/>
     </row>
-    <row r="440" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A440" s="4"/>
     </row>
-    <row r="441" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A441" s="4"/>
     </row>
-    <row r="442" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A442" s="4"/>
     </row>
-    <row r="443" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A443" s="4"/>
     </row>
-    <row r="444" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A444" s="4"/>
     </row>
-    <row r="445" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A445" s="4"/>
     </row>
-    <row r="446" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A446" s="4"/>
     </row>
-    <row r="447" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A447" s="4"/>
     </row>
-    <row r="448" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A448" s="4"/>
     </row>
-    <row r="449" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A449" s="4"/>
     </row>
-    <row r="450" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A450" s="4"/>
     </row>
-    <row r="451" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A451" s="4"/>
     </row>
-    <row r="452" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A452" s="4"/>
     </row>
-    <row r="453" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A453" s="4"/>
     </row>
-    <row r="454" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A454" s="4"/>
     </row>
-    <row r="455" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A455" s="4"/>
     </row>
-    <row r="456" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A456" s="4"/>
     </row>
-    <row r="457" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A457" s="4"/>
     </row>
-    <row r="458" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A458" s="4"/>
     </row>
-    <row r="459" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A459" s="4"/>
     </row>
-    <row r="460" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A460" s="4"/>
     </row>
-    <row r="461" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A461" s="4"/>
     </row>
-    <row r="462" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A462" s="4"/>
     </row>
-    <row r="463" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A463" s="4"/>
     </row>
-    <row r="464" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A464" s="4"/>
     </row>
-    <row r="465" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A465" s="4"/>
     </row>
-    <row r="466" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A466" s="4"/>
     </row>
-    <row r="467" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A467" s="4"/>
     </row>
-    <row r="468" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A468" s="4"/>
     </row>
-    <row r="469" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A469" s="4"/>
     </row>
-    <row r="470" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A470" s="4"/>
     </row>
-    <row r="471" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A471" s="4"/>
     </row>
-    <row r="472" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A472" s="4"/>
     </row>
-    <row r="473" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A473" s="4"/>
     </row>
-    <row r="474" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A474" s="4"/>
     </row>
-    <row r="475" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A475" s="4"/>
     </row>
-    <row r="476" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A476" s="4"/>
     </row>
-    <row r="477" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A477" s="4"/>
     </row>
-    <row r="478" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A478" s="4"/>
     </row>
-    <row r="479" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A479" s="4"/>
     </row>
-    <row r="480" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A480" s="4"/>
     </row>
-    <row r="481" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A481" s="4"/>
     </row>
-    <row r="482" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A482" s="4"/>
     </row>
-    <row r="483" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A483" s="4"/>
     </row>
-    <row r="484" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A484" s="4"/>
     </row>
-    <row r="485" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A485" s="4"/>
     </row>
-    <row r="486" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A486" s="4"/>
     </row>
-    <row r="487" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A487" s="4"/>
     </row>
-    <row r="488" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A488" s="4"/>
     </row>
-    <row r="489" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A489" s="4"/>
     </row>
-    <row r="490" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A490" s="4"/>
     </row>
-    <row r="491" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A491" s="4"/>
     </row>
-    <row r="492" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A492" s="4"/>
     </row>
-    <row r="493" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A493" s="4"/>
     </row>
-    <row r="494" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A494" s="4"/>
     </row>
-    <row r="495" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A495" s="4"/>
     </row>
-    <row r="496" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A496" s="4"/>
     </row>
-    <row r="497" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A497" s="4"/>
     </row>
-    <row r="498" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A498" s="4"/>
     </row>
-    <row r="499" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A499" s="4"/>
     </row>
-    <row r="500" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A500" s="4"/>
     </row>
-    <row r="501" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A501" s="4"/>
     </row>
-    <row r="502" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A502" s="4"/>
     </row>
-    <row r="503" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A503" s="4"/>
     </row>
-    <row r="504" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A504" s="4"/>
     </row>
-    <row r="505" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A505" s="4"/>
     </row>
-    <row r="506" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A506" s="4"/>
     </row>
-    <row r="507" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A507" s="4"/>
     </row>
-    <row r="508" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A508" s="4"/>
     </row>
-    <row r="509" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A509" s="4"/>
     </row>
-    <row r="510" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A510" s="4"/>
     </row>
-    <row r="511" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A511" s="4"/>
     </row>
-    <row r="512" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A512" s="4"/>
     </row>
-    <row r="513" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A513" s="4"/>
     </row>
-    <row r="514" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A514" s="4"/>
     </row>
-    <row r="515" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A515" s="4"/>
     </row>
-    <row r="516" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A516" s="4"/>
     </row>
-    <row r="517" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A517" s="4"/>
     </row>
-    <row r="518" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A518" s="4"/>
     </row>
-    <row r="519" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A519" s="4"/>
     </row>
-    <row r="520" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A520" s="4"/>
     </row>
-    <row r="521" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A521" s="4"/>
     </row>
-    <row r="522" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A522" s="4"/>
     </row>
-    <row r="523" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A523" s="4"/>
     </row>
-    <row r="524" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A524" s="4"/>
     </row>
-    <row r="525" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A525" s="4"/>
     </row>
-    <row r="526" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A526" s="4"/>
     </row>
-    <row r="527" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A527" s="4"/>
     </row>
-    <row r="528" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A528" s="4"/>
     </row>
-    <row r="529" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A529" s="4"/>
     </row>
-    <row r="530" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A530" s="4"/>
     </row>
-    <row r="531" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A531" s="4"/>
     </row>
-    <row r="532" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A532" s="4"/>
     </row>
-    <row r="533" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A533" s="4"/>
     </row>
-    <row r="534" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A534" s="4"/>
     </row>
-    <row r="535" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A535" s="4"/>
     </row>
-    <row r="536" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A536" s="4"/>
     </row>
-    <row r="537" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A537" s="4"/>
     </row>
-    <row r="538" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A538" s="4"/>
     </row>
-    <row r="539" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A539" s="4"/>
     </row>
-    <row r="540" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A540" s="4"/>
     </row>
-    <row r="541" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A541" s="4"/>
     </row>
-    <row r="542" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A542" s="4"/>
     </row>
-    <row r="543" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A543" s="4"/>
     </row>
-    <row r="544" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A544" s="4"/>
     </row>
-    <row r="545" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A545" s="4"/>
     </row>
-    <row r="546" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A546" s="4"/>
     </row>
-    <row r="547" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A547" s="4"/>
     </row>
-    <row r="548" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A548" s="4"/>
     </row>
-    <row r="549" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A549" s="4"/>
     </row>
-    <row r="550" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A550" s="4"/>
     </row>
-    <row r="551" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A551" s="4"/>
     </row>
-    <row r="552" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A552" s="4"/>
     </row>
-    <row r="553" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A553" s="4"/>
     </row>
-    <row r="554" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A554" s="4"/>
     </row>
-    <row r="555" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A555" s="4"/>
     </row>
-    <row r="556" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A556" s="4"/>
     </row>
-    <row r="557" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A557" s="4"/>
     </row>
-    <row r="558" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A558" s="4"/>
     </row>
-    <row r="559" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A559" s="4"/>
     </row>
-    <row r="560" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A560" s="4"/>
     </row>
-    <row r="561" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A561" s="4"/>
     </row>
-    <row r="562" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A562" s="4"/>
     </row>
-    <row r="563" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A563" s="4"/>
     </row>
-    <row r="564" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A564" s="4"/>
     </row>
-    <row r="565" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A565" s="4"/>
     </row>
-    <row r="566" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A566" s="4"/>
     </row>
-    <row r="567" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A567" s="4"/>
     </row>
-    <row r="568" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A568" s="4"/>
     </row>
-    <row r="569" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A569" s="4"/>
     </row>
-    <row r="570" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A570" s="4"/>
     </row>
-    <row r="571" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A571" s="4"/>
     </row>
-    <row r="572" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A572" s="4"/>
     </row>
-    <row r="573" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A573" s="4"/>
     </row>
-    <row r="574" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A574" s="4"/>
     </row>
-    <row r="575" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A575" s="4"/>
     </row>
-    <row r="576" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A576" s="4"/>
     </row>
-    <row r="577" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A577" s="4"/>
     </row>
-    <row r="578" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A578" s="4"/>
     </row>
-    <row r="579" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A579" s="4"/>
     </row>
-    <row r="580" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A580" s="4"/>
     </row>
-    <row r="581" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A581" s="4"/>
     </row>
-    <row r="582" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A582" s="4"/>
     </row>
-    <row r="583" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A583" s="4"/>
     </row>
-    <row r="584" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A584" s="4"/>
     </row>
-    <row r="585" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A585" s="4"/>
     </row>
-    <row r="586" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A586" s="4"/>
     </row>
-    <row r="587" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A587" s="4"/>
     </row>
-    <row r="588" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A588" s="4"/>
     </row>
-    <row r="589" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A589" s="4"/>
     </row>
-    <row r="590" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A590" s="4"/>
     </row>
-    <row r="591" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A591" s="4"/>
     </row>
-    <row r="592" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A592" s="4"/>
     </row>
-    <row r="593" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A593" s="4"/>
     </row>
-    <row r="594" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A594" s="4"/>
     </row>
-    <row r="595" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A595" s="4"/>
     </row>
-    <row r="596" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A596" s="4"/>
     </row>
-    <row r="597" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A597" s="4"/>
     </row>
-    <row r="598" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A598" s="4"/>
     </row>
-    <row r="599" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A599" s="4"/>
     </row>
-    <row r="600" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A600" s="4"/>
     </row>
-    <row r="601" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A601" s="4"/>
     </row>
-    <row r="602" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A602" s="4"/>
     </row>
-    <row r="603" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A603" s="4"/>
     </row>
-    <row r="604" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A604" s="4"/>
     </row>
-    <row r="605" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A605" s="4"/>
     </row>
-    <row r="606" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A606" s="4"/>
     </row>
-    <row r="607" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A607" s="4"/>
     </row>
-    <row r="608" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A608" s="4"/>
     </row>
-    <row r="609" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A609" s="4"/>
     </row>
-    <row r="610" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A610" s="4"/>
     </row>
-    <row r="611" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A611" s="4"/>
     </row>
-    <row r="612" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A612" s="4"/>
     </row>
-    <row r="613" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A613" s="4"/>
     </row>
-    <row r="614" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A614" s="4"/>
     </row>
-    <row r="615" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A615" s="4"/>
     </row>
-    <row r="616" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A616" s="4"/>
     </row>
-    <row r="617" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A617" s="4"/>
     </row>
-    <row r="618" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A618" s="4"/>
     </row>
-    <row r="619" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A619" s="4"/>
     </row>
-    <row r="620" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A620" s="4"/>
     </row>
-    <row r="621" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A621" s="4"/>
     </row>
-    <row r="622" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A622" s="4"/>
     </row>
-    <row r="623" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A623" s="4"/>
     </row>
-    <row r="624" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A624" s="4"/>
     </row>
-    <row r="625" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A625" s="4"/>
     </row>
-    <row r="626" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A626" s="4"/>
     </row>
-    <row r="627" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A627" s="4"/>
     </row>
-    <row r="628" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A628" s="4"/>
     </row>
-    <row r="629" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A629" s="4"/>
     </row>
-    <row r="630" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A630" s="4"/>
     </row>
-    <row r="631" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A631" s="4"/>
     </row>
-    <row r="632" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A632" s="4"/>
     </row>
-    <row r="633" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A633" s="4"/>
     </row>
-    <row r="634" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A634" s="4"/>
     </row>
-    <row r="635" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A635" s="4"/>
     </row>
-    <row r="636" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A636" s="4"/>
     </row>
-    <row r="637" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A637" s="4"/>
     </row>
-    <row r="638" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A638" s="4"/>
     </row>
-    <row r="639" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A639" s="4"/>
     </row>
-    <row r="640" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A640" s="4"/>
     </row>
-    <row r="641" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A641" s="4"/>
     </row>
-    <row r="642" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="642" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A642" s="4"/>
     </row>
-    <row r="643" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="643" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A643" s="4"/>
     </row>
-    <row r="644" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A644" s="4"/>
     </row>
-    <row r="645" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A645" s="4"/>
     </row>
-    <row r="646" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A646" s="4"/>
     </row>
-    <row r="647" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A647" s="4"/>
     </row>
-    <row r="648" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="648" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A648" s="4"/>
     </row>
-    <row r="649" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A649" s="4"/>
     </row>
-    <row r="650" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A650" s="4"/>
     </row>
-    <row r="651" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A651" s="4"/>
     </row>
-    <row r="652" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A652" s="4"/>
     </row>
-    <row r="653" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A653" s="4"/>
     </row>
-    <row r="654" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A654" s="4"/>
     </row>
-    <row r="655" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A655" s="4"/>
     </row>
-    <row r="656" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A656" s="4"/>
     </row>
-    <row r="657" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A657" s="4"/>
     </row>
-    <row r="658" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A658" s="4"/>
     </row>
-    <row r="659" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A659" s="4"/>
     </row>
-    <row r="660" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A660" s="4"/>
     </row>
-    <row r="661" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A661" s="4"/>
     </row>
-    <row r="662" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A662" s="4"/>
     </row>
-    <row r="663" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A663" s="4"/>
     </row>
-    <row r="664" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A664" s="4"/>
     </row>
-    <row r="665" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A665" s="4"/>
     </row>
-    <row r="666" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A666" s="4"/>
     </row>
-    <row r="667" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A667" s="4"/>
     </row>
-    <row r="668" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A668" s="4"/>
     </row>
-    <row r="669" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A669" s="4"/>
     </row>
-    <row r="670" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A670" s="4"/>
     </row>
-    <row r="671" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A671" s="4"/>
     </row>
-    <row r="672" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A672" s="4"/>
     </row>
-    <row r="673" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A673" s="4"/>
     </row>
-    <row r="674" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A674" s="4"/>
     </row>
-    <row r="675" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A675" s="4"/>
     </row>
-    <row r="676" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A676" s="4"/>
     </row>
-    <row r="677" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A677" s="4"/>
     </row>
-    <row r="678" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A678" s="4"/>
     </row>
-    <row r="679" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A679" s="4"/>
     </row>
-    <row r="680" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A680" s="4"/>
     </row>
-    <row r="681" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A681" s="4"/>
     </row>
-    <row r="682" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A682" s="4"/>
     </row>
-    <row r="683" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A683" s="4"/>
     </row>
-    <row r="684" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A684" s="4"/>
     </row>
-    <row r="685" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A685" s="4"/>
     </row>
-    <row r="686" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A686" s="4"/>
     </row>
-    <row r="687" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A687" s="4"/>
     </row>
-    <row r="688" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A688" s="4"/>
     </row>
-    <row r="689" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="689" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A689" s="4"/>
     </row>
-    <row r="690" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="690" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A690" s="4"/>
     </row>
-    <row r="691" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="691" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A691" s="4"/>
     </row>
-    <row r="692" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="692" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A692" s="4"/>
     </row>
-    <row r="693" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="693" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A693" s="4"/>
     </row>
-    <row r="694" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="694" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A694" s="4"/>
     </row>
-    <row r="695" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="695" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A695" s="4"/>
     </row>
-    <row r="696" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="696" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A696" s="4"/>
     </row>
-    <row r="697" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="697" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A697" s="4"/>
     </row>
-    <row r="698" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="698" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A698" s="4"/>
     </row>
-    <row r="699" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="699" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A699" s="4"/>
     </row>
-    <row r="700" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="700" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A700" s="4"/>
     </row>
-    <row r="701" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="701" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A701" s="4"/>
     </row>
-    <row r="702" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="702" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A702" s="4"/>
     </row>
-    <row r="703" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="703" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A703" s="4"/>
     </row>
-    <row r="704" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="704" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A704" s="4"/>
     </row>
-    <row r="705" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="705" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A705" s="4"/>
     </row>
-    <row r="706" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="706" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A706" s="4"/>
     </row>
-    <row r="707" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="707" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A707" s="4"/>
     </row>
-    <row r="708" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="708" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A708" s="4"/>
     </row>
-    <row r="709" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="709" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A709" s="4"/>
     </row>
-    <row r="710" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="710" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A710" s="4"/>
     </row>
-    <row r="711" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="711" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A711" s="4"/>
     </row>
-    <row r="712" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="712" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A712" s="4"/>
     </row>
-    <row r="713" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="713" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A713" s="4"/>
     </row>
-    <row r="714" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="714" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A714" s="4"/>
     </row>
-    <row r="715" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="715" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A715" s="4"/>
     </row>
-    <row r="716" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="716" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A716" s="4"/>
     </row>
-    <row r="717" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="717" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A717" s="4"/>
     </row>
-    <row r="718" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="718" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A718" s="4"/>
     </row>
-    <row r="719" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="719" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A719" s="4"/>
     </row>
-    <row r="720" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="720" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A720" s="4"/>
     </row>
-    <row r="721" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="721" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A721" s="4"/>
     </row>
-    <row r="722" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="722" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A722" s="4"/>
     </row>
-    <row r="723" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="723" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A723" s="4"/>
     </row>
-    <row r="724" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="724" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A724" s="4"/>
     </row>
-    <row r="725" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="725" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A725" s="4"/>
     </row>
-    <row r="726" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="726" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A726" s="4"/>
     </row>
-    <row r="727" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="727" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A727" s="4"/>
     </row>
-    <row r="728" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="728" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A728" s="4"/>
     </row>
-    <row r="729" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="729" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A729" s="4"/>
     </row>
-    <row r="730" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="730" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A730" s="4"/>
     </row>
-    <row r="731" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="731" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A731" s="4"/>
     </row>
-    <row r="732" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="732" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A732" s="4"/>
     </row>
-    <row r="733" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="733" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A733" s="4"/>
     </row>
-    <row r="734" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="734" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A734" s="4"/>
     </row>
-    <row r="735" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="735" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A735" s="4"/>
     </row>
-    <row r="736" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="736" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A736" s="4"/>
     </row>
-    <row r="737" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="737" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A737" s="4"/>
     </row>
-    <row r="738" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="738" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A738" s="4"/>
     </row>
-    <row r="739" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="739" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A739" s="4"/>
     </row>
-    <row r="740" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="740" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A740" s="4"/>
     </row>
-    <row r="741" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="741" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A741" s="4"/>
     </row>
-    <row r="742" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="742" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A742" s="4"/>
     </row>
-    <row r="743" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="743" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A743" s="4"/>
     </row>
-    <row r="744" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="744" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A744" s="4"/>
     </row>
-    <row r="745" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="745" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A745" s="4"/>
     </row>
-    <row r="746" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="746" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A746" s="4"/>
     </row>
-    <row r="747" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="747" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A747" s="4"/>
     </row>
-    <row r="748" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="748" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A748" s="4"/>
     </row>
-    <row r="749" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="749" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A749" s="4"/>
     </row>
-    <row r="750" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="750" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A750" s="4"/>
     </row>
-    <row r="751" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="751" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A751" s="4"/>
     </row>
-    <row r="752" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="752" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A752" s="4"/>
     </row>
-    <row r="753" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="753" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A753" s="4"/>
     </row>
-    <row r="754" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="754" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A754" s="4"/>
     </row>
-    <row r="755" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="755" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A755" s="4"/>
     </row>
-    <row r="756" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="756" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A756" s="4"/>
     </row>
-    <row r="757" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="757" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A757" s="4"/>
     </row>
-    <row r="758" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="758" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A758" s="4"/>
     </row>
-    <row r="759" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="759" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A759" s="4"/>
     </row>
-    <row r="760" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="760" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A760" s="4"/>
     </row>
-    <row r="761" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="761" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A761" s="4"/>
     </row>
-    <row r="762" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="762" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A762" s="4"/>
     </row>
-    <row r="763" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="763" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A763" s="4"/>
     </row>
-    <row r="764" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="764" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A764" s="4"/>
     </row>
-    <row r="765" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="765" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A765" s="4"/>
     </row>
-    <row r="766" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="766" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A766" s="4"/>
     </row>
-    <row r="767" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="767" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A767" s="4"/>
     </row>
-    <row r="768" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="768" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A768" s="4"/>
     </row>
-    <row r="769" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="769" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A769" s="4"/>
     </row>
-    <row r="770" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="770" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A770" s="4"/>
     </row>
-    <row r="771" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="771" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A771" s="4"/>
     </row>
-    <row r="772" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="772" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A772" s="4"/>
     </row>
-    <row r="773" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="773" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A773" s="4"/>
     </row>
-    <row r="774" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="774" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A774" s="4"/>
     </row>
-    <row r="775" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="775" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A775" s="4"/>
     </row>
-    <row r="776" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="776" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A776" s="4"/>
     </row>
-    <row r="777" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="777" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A777" s="4"/>
     </row>
-    <row r="778" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="778" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A778" s="4"/>
     </row>
-    <row r="779" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="779" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A779" s="4"/>
     </row>
-    <row r="780" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="780" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A780" s="4"/>
     </row>
-    <row r="781" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="781" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A781" s="4"/>
     </row>
-    <row r="782" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="782" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A782" s="4"/>
     </row>
-    <row r="783" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="783" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A783" s="4"/>
     </row>
-    <row r="784" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="784" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A784" s="4"/>
     </row>
-    <row r="785" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="785" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A785" s="4"/>
     </row>
-    <row r="786" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="786" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A786" s="4"/>
     </row>
-    <row r="787" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="787" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A787" s="4"/>
     </row>
-    <row r="788" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="788" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A788" s="4"/>
     </row>
-    <row r="789" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="789" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A789" s="4"/>
     </row>
-    <row r="790" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="790" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A790" s="4"/>
     </row>
-    <row r="791" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="791" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A791" s="4"/>
     </row>
-    <row r="792" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="792" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A792" s="4"/>
     </row>
-    <row r="793" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="793" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A793" s="4"/>
     </row>
-    <row r="794" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="794" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A794" s="4"/>
     </row>
-    <row r="795" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="795" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A795" s="4"/>
     </row>
-    <row r="796" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="796" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A796" s="4"/>
     </row>
-    <row r="797" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="797" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A797" s="4"/>
     </row>
-    <row r="798" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="798" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A798" s="4"/>
     </row>
-    <row r="799" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="799" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A799" s="4"/>
     </row>
-    <row r="800" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="800" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A800" s="4"/>
     </row>
-    <row r="801" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="801" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A801" s="4"/>
     </row>
-    <row r="802" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="802" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A802" s="4"/>
     </row>
-    <row r="803" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="803" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A803" s="4"/>
     </row>
-    <row r="804" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="804" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A804" s="4"/>
     </row>
-    <row r="805" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="805" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A805" s="4"/>
     </row>
-    <row r="806" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="806" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A806" s="4"/>
     </row>
-    <row r="807" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="807" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A807" s="4"/>
     </row>
-    <row r="808" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="808" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A808" s="4"/>
     </row>
-    <row r="809" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="809" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A809" s="4"/>
     </row>
-    <row r="810" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="810" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A810" s="4"/>
     </row>
-    <row r="811" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="811" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A811" s="4"/>
     </row>
-    <row r="812" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="812" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A812" s="4"/>
     </row>
-    <row r="813" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="813" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A813" s="4"/>
     </row>
-    <row r="814" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="814" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A814" s="4"/>
     </row>
-    <row r="815" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="815" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A815" s="4"/>
     </row>
-    <row r="816" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="816" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A816" s="4"/>
     </row>
-    <row r="817" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="817" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A817" s="4"/>
     </row>
-    <row r="818" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="818" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A818" s="4"/>
     </row>
-    <row r="819" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="819" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A819" s="4"/>
     </row>
-    <row r="820" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="820" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A820" s="4"/>
     </row>
-    <row r="821" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="821" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A821" s="4"/>
     </row>
-    <row r="822" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="822" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A822" s="4"/>
     </row>
-    <row r="823" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="823" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A823" s="4"/>
     </row>
-    <row r="824" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="824" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A824" s="4"/>
     </row>
-    <row r="825" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="825" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A825" s="4"/>
     </row>
-    <row r="826" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="826" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A826" s="4"/>
     </row>
-    <row r="827" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="827" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A827" s="4"/>
     </row>
-    <row r="828" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="828" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A828" s="4"/>
     </row>
-    <row r="829" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="829" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A829" s="4"/>
     </row>
-    <row r="830" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="830" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A830" s="4"/>
     </row>
-    <row r="831" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="831" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A831" s="4"/>
     </row>
-    <row r="832" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="832" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A832" s="4"/>
     </row>
-    <row r="833" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="833" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A833" s="4"/>
     </row>
-    <row r="834" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="834" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A834" s="4"/>
     </row>
-    <row r="835" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="835" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A835" s="4"/>
     </row>
-    <row r="836" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="836" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A836" s="4"/>
     </row>
-    <row r="837" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="837" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A837" s="4"/>
     </row>
-    <row r="838" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="838" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A838" s="4"/>
     </row>
-    <row r="839" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="839" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A839" s="4"/>
     </row>
-    <row r="840" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="840" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A840" s="4"/>
     </row>
-    <row r="841" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="841" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A841" s="4"/>
     </row>
-    <row r="842" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="842" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A842" s="4"/>
     </row>
-    <row r="843" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="843" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A843" s="4"/>
     </row>
-    <row r="844" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="844" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A844" s="4"/>
     </row>
-    <row r="845" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="845" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A845" s="4"/>
     </row>
-    <row r="846" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="846" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A846" s="4"/>
     </row>
-    <row r="847" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="847" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A847" s="4"/>
     </row>
-    <row r="848" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="848" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A848" s="4"/>
     </row>
-    <row r="849" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="849" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A849" s="4"/>
     </row>
-    <row r="850" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="850" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A850" s="4"/>
     </row>
-    <row r="851" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="851" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A851" s="4"/>
     </row>
-    <row r="852" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="852" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A852" s="4"/>
     </row>
-    <row r="853" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="853" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A853" s="4"/>
     </row>
-    <row r="854" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="854" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A854" s="4"/>
     </row>
-    <row r="855" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="855" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A855" s="4"/>
     </row>
-    <row r="856" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="856" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A856" s="4"/>
     </row>
-    <row r="857" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="857" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A857" s="4"/>
     </row>
-    <row r="858" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="858" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A858" s="4"/>
     </row>
-    <row r="859" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="859" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A859" s="4"/>
     </row>
-    <row r="860" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="860" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A860" s="4"/>
     </row>
-    <row r="861" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="861" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A861" s="4"/>
     </row>
-    <row r="862" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="862" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A862" s="4"/>
     </row>
-    <row r="863" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="863" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A863" s="4"/>
     </row>
-    <row r="864" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="864" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A864" s="4"/>
     </row>
-    <row r="865" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="865" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A865" s="4"/>
     </row>
-    <row r="866" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="866" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A866" s="4"/>
     </row>
-    <row r="867" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="867" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A867" s="4"/>
     </row>
-    <row r="868" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="868" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A868" s="4"/>
     </row>
-    <row r="869" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="869" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A869" s="4"/>
     </row>
-    <row r="870" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="870" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A870" s="4"/>
     </row>
-    <row r="871" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="871" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A871" s="4"/>
     </row>
-    <row r="872" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="872" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A872" s="4"/>
     </row>
-    <row r="873" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="873" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A873" s="4"/>
     </row>
-    <row r="874" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="874" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A874" s="4"/>
     </row>
-    <row r="875" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="875" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A875" s="4"/>
     </row>
-    <row r="876" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="876" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A876" s="4"/>
     </row>
-    <row r="877" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="877" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A877" s="4"/>
     </row>
-    <row r="878" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="878" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A878" s="4"/>
     </row>
-    <row r="879" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="879" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A879" s="4"/>
     </row>
-    <row r="880" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="880" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A880" s="4"/>
     </row>
-    <row r="881" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="881" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A881" s="4"/>
     </row>
-    <row r="882" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="882" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A882" s="4"/>
     </row>
-    <row r="883" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="883" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A883" s="4"/>
     </row>
-    <row r="884" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="884" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A884" s="4"/>
     </row>
-    <row r="885" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="885" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A885" s="4"/>
     </row>
-    <row r="886" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="886" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A886" s="4"/>
     </row>
-    <row r="887" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="887" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A887" s="4"/>
     </row>
-    <row r="888" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="888" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A888" s="4"/>
     </row>
-    <row r="889" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="889" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A889" s="4"/>
     </row>
-    <row r="890" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="890" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A890" s="4"/>
     </row>
-    <row r="891" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="891" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A891" s="4"/>
     </row>
-    <row r="892" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="892" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A892" s="4"/>
     </row>
-    <row r="893" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="893" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A893" s="4"/>
     </row>
-    <row r="894" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="894" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A894" s="4"/>
     </row>
-    <row r="895" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="895" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A895" s="4"/>
     </row>
-    <row r="896" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="896" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A896" s="4"/>
     </row>
-    <row r="897" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="897" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A897" s="4"/>
     </row>
-    <row r="898" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="898" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A898" s="4"/>
     </row>
-    <row r="899" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="899" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A899" s="4"/>
     </row>
-    <row r="900" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="900" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A900" s="4"/>
     </row>
-    <row r="901" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="901" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A901" s="4"/>
     </row>
-    <row r="902" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="902" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A902" s="4"/>
     </row>
-    <row r="903" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="903" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A903" s="4"/>
     </row>
-    <row r="904" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="904" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A904" s="4"/>
     </row>
-    <row r="905" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="905" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A905" s="4"/>
     </row>
-    <row r="906" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="906" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A906" s="4"/>
     </row>
-    <row r="907" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="907" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A907" s="4"/>
     </row>
-    <row r="908" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="908" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A908" s="4"/>
     </row>
-    <row r="909" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="909" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A909" s="4"/>
     </row>
-    <row r="910" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="910" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A910" s="4"/>
     </row>
-    <row r="911" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="911" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A911" s="4"/>
     </row>
-    <row r="912" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="912" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A912" s="4"/>
     </row>
-    <row r="913" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="913" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A913" s="4"/>
     </row>
-    <row r="914" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="914" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A914" s="4"/>
     </row>
-    <row r="915" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="915" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A915" s="4"/>
     </row>
-    <row r="916" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="916" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A916" s="4"/>
     </row>
-    <row r="917" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="917" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A917" s="4"/>
     </row>
-    <row r="918" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="918" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A918" s="4"/>
     </row>
-    <row r="919" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="919" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A919" s="4"/>
     </row>
-    <row r="920" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="920" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A920" s="4"/>
     </row>
-    <row r="921" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="921" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A921" s="4"/>
     </row>
-    <row r="922" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="922" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A922" s="4"/>
     </row>
-    <row r="923" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="923" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A923" s="4"/>
     </row>
-    <row r="924" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="924" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A924" s="4"/>
     </row>
-    <row r="925" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="925" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A925" s="4"/>
     </row>
-    <row r="926" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="926" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A926" s="4"/>
     </row>
-    <row r="927" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="927" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A927" s="4"/>
     </row>
-    <row r="928" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="928" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A928" s="4"/>
     </row>
-    <row r="929" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="929" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A929" s="4"/>
     </row>
-    <row r="930" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="930" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A930" s="4"/>
     </row>
-    <row r="931" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="931" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A931" s="4"/>
     </row>
-    <row r="932" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="932" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A932" s="4"/>
     </row>
-    <row r="933" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="933" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A933" s="4"/>
     </row>
-    <row r="934" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="934" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A934" s="4"/>
     </row>
-    <row r="935" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="935" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A935" s="4"/>
     </row>
-    <row r="936" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="936" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A936" s="4"/>
     </row>
-    <row r="937" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="937" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A937" s="4"/>
     </row>
-    <row r="938" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="938" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A938" s="4"/>
     </row>
-    <row r="939" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="939" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A939" s="4"/>
     </row>
-    <row r="940" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="940" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A940" s="4"/>
     </row>
-    <row r="941" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="941" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A941" s="4"/>
     </row>
-    <row r="942" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="942" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A942" s="4"/>
     </row>
-    <row r="943" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="943" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A943" s="4"/>
     </row>
-    <row r="944" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="944" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A944" s="4"/>
     </row>
-    <row r="945" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="945" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A945" s="4"/>
     </row>
-    <row r="946" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="946" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A946" s="4"/>
     </row>
-    <row r="947" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="947" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A947" s="4"/>
     </row>
-    <row r="948" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="948" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A948" s="4"/>
     </row>
-    <row r="949" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="949" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A949" s="4"/>
     </row>
-    <row r="950" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="950" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A950" s="4"/>
     </row>
-    <row r="951" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="951" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A951" s="4"/>
     </row>
-    <row r="952" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="952" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A952" s="4"/>
     </row>
-    <row r="953" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="953" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A953" s="4"/>
     </row>
-    <row r="954" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="954" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A954" s="4"/>
     </row>
-    <row r="955" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="955" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A955" s="4"/>
     </row>
-    <row r="956" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="956" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A956" s="4"/>
     </row>
-    <row r="957" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="957" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A957" s="4"/>
     </row>
-    <row r="958" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="958" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A958" s="4"/>
     </row>
-    <row r="959" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="959" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A959" s="4"/>
     </row>
-    <row r="960" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="960" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A960" s="4"/>
     </row>
-    <row r="961" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="961" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A961" s="4"/>
     </row>
-    <row r="962" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="962" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A962" s="4"/>
     </row>
-    <row r="963" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="963" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A963" s="4"/>
     </row>
-    <row r="964" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="964" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A964" s="4"/>
     </row>
-    <row r="965" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="965" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A965" s="4"/>
     </row>
-    <row r="966" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="966" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A966" s="4"/>
     </row>
-    <row r="967" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="967" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A967" s="4"/>
     </row>
-    <row r="968" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="968" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A968" s="4"/>
     </row>
-    <row r="969" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="969" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A969" s="4"/>
     </row>
-    <row r="970" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="970" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A970" s="4"/>
     </row>
-    <row r="971" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="971" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A971" s="4"/>
     </row>
-    <row r="972" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="972" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A972" s="4"/>
     </row>
-    <row r="973" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="973" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A973" s="4"/>
     </row>
-    <row r="974" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="974" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A974" s="4"/>
     </row>
-    <row r="975" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="975" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A975" s="4"/>
     </row>
-    <row r="976" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="976" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A976" s="4"/>
     </row>
-    <row r="977" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="977" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A977" s="4"/>
     </row>
-    <row r="978" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="978" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A978" s="4"/>
     </row>
-    <row r="979" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="979" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A979" s="4"/>
     </row>
-    <row r="980" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="980" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A980" s="4"/>
     </row>
-    <row r="981" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="981" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A981" s="4"/>
     </row>
-    <row r="982" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="982" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A982" s="4"/>
     </row>
-    <row r="983" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="983" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A983" s="4"/>
     </row>
-    <row r="984" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="984" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A984" s="4"/>
     </row>
-    <row r="985" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="985" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A985" s="4"/>
     </row>
-    <row r="986" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="986" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A986" s="4"/>
     </row>
-    <row r="987" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="987" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A987" s="4"/>
     </row>
-    <row r="988" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="988" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A988" s="4"/>
     </row>
-    <row r="989" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="989" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A989" s="4"/>
     </row>
-    <row r="990" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="990" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A990" s="4"/>
     </row>
-    <row r="991" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="991" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A991" s="4"/>
     </row>
-    <row r="992" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="992" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A992" s="4"/>
     </row>
-    <row r="993" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="993" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A993" s="4"/>
     </row>
-    <row r="994" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="994" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A994" s="4"/>
     </row>
-    <row r="995" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="995" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A995" s="4"/>
     </row>
-    <row r="996" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="996" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A996" s="4"/>
     </row>
-    <row r="997" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="997" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A997" s="4"/>
     </row>
-    <row r="998" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="998" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A998" s="4"/>
     </row>
-    <row r="999" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="999" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A999" s="4"/>
     </row>
   </sheetData>
